--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Pomc-Mc3r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Pomc-Mc3r.xlsx
@@ -531,10 +531,10 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.3304176666666667</v>
+        <v>1.524170333333333</v>
       </c>
       <c r="H2">
-        <v>0.9912529999999999</v>
+        <v>4.572511</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -561,10 +561,10 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.003200755937</v>
+        <v>0.014764638019</v>
       </c>
       <c r="R2">
-        <v>0.028806803433</v>
+        <v>0.132881742171</v>
       </c>
       <c r="S2">
         <v>1</v>
